--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Excel-to-mysql-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E2B26-005D-4636-9E64-D28D4513C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5081C83-7F6F-425C-AF7F-03ACBC713EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1584" windowWidth="13920" windowHeight="8544" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
+    <sheet name="salary" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -368,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,4 +425,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC296C3-0285-4AF6-8D5F-733629A95AF9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1213</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>21313</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13213</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>